--- a/motor sequence sheet .xlsx
+++ b/motor sequence sheet .xlsx
@@ -1,17 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94D3E13-A316-4EEE-9363-8761930FF1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>key_resp.corr</t>
   </si>
@@ -24,20 +45,29 @@
   <si>
     <t>ranRT</t>
   </si>
+  <si>
+    <t>sequencial mean</t>
+  </si>
+  <si>
+    <t>full random mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difference </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -47,38 +77,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -89,11 +130,17 @@
     <xdr:ext cx="7162800" cy="4305300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -111,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -301,26 +348,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1" t="s">
@@ -330,26 +383,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1.083622</v>
+        <v>1.0836220000000001</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3">
-        <v>1.083622</v>
+        <v>1.0836220000000001</v>
       </c>
       <c r="G2" s="3">
-        <v>0.606083</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.60608300000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>1.268005</v>
@@ -361,403 +414,417 @@
         <v>1.268005</v>
       </c>
       <c r="G3" s="3">
-        <v>0.474372</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.47437200000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>0.907952</v>
+        <v>0.90795199999999998</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3">
-        <v>0.907952</v>
+        <v>0.90795199999999998</v>
       </c>
       <c r="G4" s="3">
-        <v>0.862637</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.86263699999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>0.849749</v>
+        <v>0.84974899999999998</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3">
-        <v>0.849749</v>
+        <v>0.84974899999999998</v>
       </c>
       <c r="G5" s="3">
-        <v>0.562211</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.56221100000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>0.85821</v>
+        <v>0.85821000000000003</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3">
-        <v>0.85821</v>
+        <v>0.85821000000000003</v>
       </c>
       <c r="G6" s="3">
-        <v>0.525887</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.52588699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>0.968207</v>
+        <v>0.96820700000000004</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
-        <v>0.968207</v>
+        <v>0.96820700000000004</v>
       </c>
       <c r="G7" s="3">
-        <v>0.557827</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.55782699999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>1.023024</v>
+        <v>1.0230239999999999</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3">
-        <v>1.023024</v>
+        <v>1.0230239999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>0.560339</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.56033900000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>0.645775</v>
+        <v>0.64577499999999999</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
-        <v>0.645775</v>
+        <v>0.64577499999999999</v>
       </c>
       <c r="G9" s="3">
-        <v>0.594876</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.59487599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>0.805546</v>
+        <v>0.80554599999999998</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3">
-        <v>0.805546</v>
+        <v>0.80554599999999998</v>
       </c>
       <c r="G10" s="3">
-        <v>0.459932</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.45993200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>0.720164</v>
+        <v>0.72016400000000003</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3">
-        <v>0.720164</v>
+        <v>0.72016400000000003</v>
       </c>
       <c r="G11" s="3">
-        <v>0.50698</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.50697999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>0.68631</v>
+        <v>0.68630999999999998</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3">
-        <v>0.68631</v>
+        <v>0.68630999999999998</v>
       </c>
       <c r="G12" s="3">
-        <v>1.111047</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1.1110469999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>0.649195</v>
+        <v>0.64919499999999997</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
-        <v>0.649195</v>
+        <v>0.64919499999999997</v>
       </c>
       <c r="G13" s="3">
-        <v>0.599791</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.59979099999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3">
-        <v>0.647618</v>
+        <v>0.64761800000000003</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3">
-        <v>0.647618</v>
+        <v>0.64761800000000003</v>
       </c>
       <c r="G14" s="3">
-        <v>0.789899</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.78989900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3">
-        <v>0.698957</v>
+        <v>0.69895700000000005</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3">
-        <v>0.698957</v>
+        <v>0.69895700000000005</v>
       </c>
       <c r="G15" s="3">
-        <v>0.994681</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.99468100000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3">
-        <v>0.643479</v>
+        <v>0.64347900000000002</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3">
-        <v>0.643479</v>
+        <v>0.64347900000000002</v>
       </c>
       <c r="G16" s="3">
-        <v>0.871966</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.87196600000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>0.589487</v>
+        <v>0.58948699999999998</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
-        <v>0.589487</v>
+        <v>0.58948699999999998</v>
       </c>
       <c r="G17" s="3">
-        <v>0.796635</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.79663499999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>0.643836</v>
+        <v>0.64383599999999996</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3">
-        <v>0.643836</v>
+        <v>0.64383599999999996</v>
       </c>
       <c r="G18" s="3">
         <v>0.895181</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>0.55054</v>
+        <v>0.55054000000000003</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3">
-        <v>0.55054</v>
+        <v>0.55054000000000003</v>
       </c>
       <c r="G19" s="3">
-        <v>0.575374</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.57537400000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="3">
-        <v>0.659819</v>
+        <v>0.65981900000000004</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3">
-        <v>0.659819</v>
+        <v>0.65981900000000004</v>
       </c>
       <c r="G20" s="3">
-        <v>0.933213</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.93321299999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>0.623683</v>
+        <v>0.62368299999999999</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
-        <v>0.623683</v>
+        <v>0.62368299999999999</v>
       </c>
       <c r="G21" s="3">
-        <v>0.851311</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.85131100000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3">
-        <v>0.660561</v>
+        <v>0.66056099999999995</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3">
-        <v>0.660561</v>
+        <v>0.66056099999999995</v>
       </c>
       <c r="G22" s="3">
-        <v>0.723844</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.72384400000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>1.102383</v>
+        <v>1.1023829999999999</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3">
-        <v>1.102383</v>
+        <v>1.1023829999999999</v>
       </c>
       <c r="G23" s="3">
-        <v>0.84629</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.84628999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="3">
-        <v>0.552084</v>
+        <v>0.55208400000000002</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3">
-        <v>0.552084</v>
+        <v>0.55208400000000002</v>
       </c>
       <c r="G24" s="3">
-        <v>0.610672</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.61067199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3">
-        <v>0.530558</v>
+        <v>0.53055799999999997</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3">
-        <v>0.530558</v>
+        <v>0.53055799999999997</v>
       </c>
       <c r="G25" s="3">
-        <v>0.482328</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0.48232799999999998</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(F:F)</f>
+        <v>0.61745995833333323</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="3">
-        <v>0.733821</v>
+        <v>0.73382099999999995</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3">
-        <v>0.733821</v>
+        <v>0.73382099999999995</v>
       </c>
       <c r="G26" s="3">
-        <v>0.712126</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.71212600000000004</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(G:G)</f>
+        <v>0.68340950000000023</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="3">
         <v>0.559562</v>
@@ -769,131 +836,137 @@
         <v>0.559562</v>
       </c>
       <c r="G27" s="3">
-        <v>0.661349</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.66134899999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>0.664438</v>
+        <v>0.66443799999999997</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3">
-        <v>0.664438</v>
+        <v>0.66443799999999997</v>
       </c>
       <c r="G28" s="3">
-        <v>0.803673</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.80367299999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="3">
-        <v>0.384672</v>
+        <v>0.38467200000000001</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3">
-        <v>0.384672</v>
+        <v>0.38467200000000001</v>
       </c>
       <c r="G29" s="3">
-        <v>0.663687</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0.66368700000000003</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>-6.5949542E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>0.613845</v>
+        <v>0.61384499999999997</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3">
-        <v>0.613845</v>
+        <v>0.61384499999999997</v>
       </c>
       <c r="G30" s="3">
-        <v>0.69607</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.69606999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="3">
-        <v>0.617677</v>
+        <v>0.61767700000000003</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3">
-        <v>0.617677</v>
+        <v>0.61767700000000003</v>
       </c>
       <c r="G31" s="3">
-        <v>1.41646</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1.4164600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="3">
-        <v>0.58357</v>
+        <v>0.58357000000000003</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3">
-        <v>0.58357</v>
+        <v>0.58357000000000003</v>
       </c>
       <c r="G32" s="3">
-        <v>0.612419</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0.61241900000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>0.600959</v>
+        <v>0.60095900000000002</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3">
-        <v>0.600959</v>
+        <v>0.60095900000000002</v>
       </c>
       <c r="G33" s="3">
-        <v>1.505996</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1.5059959999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="3">
-        <v>0.583753</v>
+        <v>0.58375299999999997</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3">
-        <v>0.583753</v>
+        <v>0.58375299999999997</v>
       </c>
       <c r="G34" s="3">
-        <v>0.524275</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.52427500000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="3">
         <v>0.497778</v>
@@ -905,335 +978,335 @@
         <v>0.497778</v>
       </c>
       <c r="G35" s="3">
-        <v>0.711859</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.71185900000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="3">
-        <v>0.590789</v>
+        <v>0.59078900000000001</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3">
-        <v>0.590789</v>
+        <v>0.59078900000000001</v>
       </c>
       <c r="G36" s="3">
-        <v>0.633809</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.63380899999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="3">
-        <v>0.567258</v>
+        <v>0.56725800000000004</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3">
-        <v>0.567258</v>
+        <v>0.56725800000000004</v>
       </c>
       <c r="G37" s="3">
-        <v>0.776862</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.77686200000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>0.541202</v>
+        <v>0.54120199999999996</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3">
-        <v>0.541202</v>
+        <v>0.54120199999999996</v>
       </c>
       <c r="G38" s="3">
         <v>0.702878</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>0.320534</v>
+        <v>0.32053399999999999</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3">
-        <v>0.320534</v>
+        <v>0.32053399999999999</v>
       </c>
       <c r="G39" s="3">
-        <v>0.728108</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.72810799999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="3">
-        <v>0.486389</v>
+        <v>0.48638900000000002</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3">
-        <v>0.486389</v>
+        <v>0.48638900000000002</v>
       </c>
       <c r="G40" s="3">
-        <v>0.544615</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.54461499999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="3">
-        <v>0.57213</v>
+        <v>0.57213000000000003</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3">
-        <v>0.57213</v>
+        <v>0.57213000000000003</v>
       </c>
       <c r="G41" s="3">
-        <v>0.652479</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.65247900000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="3">
-        <v>0.59954</v>
+        <v>0.59953999999999996</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3">
-        <v>0.59954</v>
+        <v>0.59953999999999996</v>
       </c>
       <c r="G42" s="3">
-        <v>0.476347</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0.47634700000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>0.550694</v>
+        <v>0.55069400000000002</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3">
-        <v>0.550694</v>
+        <v>0.55069400000000002</v>
       </c>
       <c r="G43" s="3">
-        <v>0.40582</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0.40582000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="3">
-        <v>0.698836</v>
+        <v>0.69883600000000001</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3">
-        <v>0.698836</v>
+        <v>0.69883600000000001</v>
       </c>
       <c r="G44" s="3">
-        <v>0.563241</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0.56324099999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="3">
-        <v>0.421219</v>
+        <v>0.42121900000000001</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3">
-        <v>0.421219</v>
+        <v>0.42121900000000001</v>
       </c>
       <c r="G45" s="3">
-        <v>0.614987</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0.61498699999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="3">
-        <v>0.619554</v>
+        <v>0.61955400000000005</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="3">
-        <v>0.619554</v>
+        <v>0.61955400000000005</v>
       </c>
       <c r="G46" s="3">
         <v>0.657555</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="3">
-        <v>0.531408</v>
+        <v>0.53140799999999999</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3">
-        <v>0.531408</v>
+        <v>0.53140799999999999</v>
       </c>
       <c r="G47" s="3">
-        <v>0.65007</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0.65007000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>0.721816</v>
+        <v>0.72181600000000001</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="3">
-        <v>0.721816</v>
+        <v>0.72181600000000001</v>
       </c>
       <c r="G48" s="3">
-        <v>0.899157</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0.89915699999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>0.438314</v>
+        <v>0.43831399999999998</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3">
-        <v>0.438314</v>
+        <v>0.43831399999999998</v>
       </c>
       <c r="G49" s="3">
-        <v>0.62503</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0.62502999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.583697</v>
+        <v>0.58369700000000002</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3">
-        <v>0.583697</v>
+        <v>0.58369700000000002</v>
       </c>
       <c r="G50" s="3">
-        <v>0.526875</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0.52687499999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="3">
-        <v>0.503775</v>
+        <v>0.50377499999999997</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3">
-        <v>0.503775</v>
+        <v>0.50377499999999997</v>
       </c>
       <c r="G51" s="3">
-        <v>0.523295</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.52329499999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B52" s="3">
-        <v>0.602087</v>
+        <v>0.60208700000000004</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="3">
-        <v>0.602087</v>
+        <v>0.60208700000000004</v>
       </c>
       <c r="G52" s="3">
-        <v>0.433264</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0.43326399999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="3">
-        <v>0.516062</v>
+        <v>0.51606200000000002</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="3">
-        <v>0.516062</v>
+        <v>0.51606200000000002</v>
       </c>
       <c r="G53" s="3">
-        <v>0.795802</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>0.79580200000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="3">
-        <v>0.501872</v>
+        <v>0.50187199999999998</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="3">
-        <v>0.501872</v>
+        <v>0.50187199999999998</v>
       </c>
       <c r="G54" s="3">
         <v>1.113143</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="3">
         <v>0.385604</v>
@@ -1248,145 +1321,145 @@
         <v>0.446108</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B56" s="3">
-        <v>0.623044</v>
+        <v>0.62304400000000004</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3">
-        <v>0.623044</v>
+        <v>0.62304400000000004</v>
       </c>
       <c r="G56" s="3">
-        <v>0.54527</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0.54527000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>0.498348</v>
+        <v>0.49834800000000001</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3">
-        <v>0.498348</v>
+        <v>0.49834800000000001</v>
       </c>
       <c r="G57" s="3">
         <v>0.57765</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>0.469266</v>
+        <v>0.46926600000000002</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="3">
-        <v>0.469266</v>
+        <v>0.46926600000000002</v>
       </c>
       <c r="G58" s="3">
-        <v>0.90875</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0.90874999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B59" s="3">
-        <v>0.468112</v>
+        <v>0.46811199999999997</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="3">
-        <v>0.468112</v>
+        <v>0.46811199999999997</v>
       </c>
       <c r="G59" s="3">
         <v>0.650644</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="3">
-        <v>0.584777</v>
+        <v>0.58477699999999999</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="3">
-        <v>0.584777</v>
+        <v>0.58477699999999999</v>
       </c>
       <c r="G60" s="3">
-        <v>0.536669</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0.53666899999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="3">
-        <v>0.486394</v>
+        <v>0.48639399999999999</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3">
-        <v>0.486394</v>
+        <v>0.48639399999999999</v>
       </c>
       <c r="G61" s="3">
-        <v>0.723981</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0.72398099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="3">
-        <v>0.795391</v>
+        <v>0.79539099999999996</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="3">
-        <v>0.795391</v>
+        <v>0.79539099999999996</v>
       </c>
       <c r="G62" s="3">
-        <v>0.723408</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0.72340800000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B63" s="3">
-        <v>0.601893</v>
+        <v>0.60189300000000001</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="3">
-        <v>0.601893</v>
+        <v>0.60189300000000001</v>
       </c>
       <c r="G63" s="3">
-        <v>0.653309</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0.65330900000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B64" s="3">
         <v>0.590646</v>
@@ -1398,199 +1471,199 @@
         <v>0.590646</v>
       </c>
       <c r="G64" s="3">
-        <v>0.728452</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0.72845199999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>0.592079</v>
+        <v>0.59207900000000002</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3">
-        <v>0.592079</v>
+        <v>0.59207900000000002</v>
       </c>
       <c r="G65" s="3">
-        <v>0.547452</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0.54745200000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>0.636314</v>
+        <v>0.63631400000000005</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3">
-        <v>0.636314</v>
+        <v>0.63631400000000005</v>
       </c>
       <c r="G66" s="3">
-        <v>0.811986</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.81198599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B67" s="3">
-        <v>0.433675</v>
+        <v>0.43367499999999998</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="3">
-        <v>0.433675</v>
+        <v>0.43367499999999998</v>
       </c>
       <c r="G67" s="3">
-        <v>0.654295</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0.65429499999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B68" s="3">
-        <v>0.447002</v>
+        <v>0.44700200000000001</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3">
-        <v>0.447002</v>
+        <v>0.44700200000000001</v>
       </c>
       <c r="G68" s="3">
-        <v>0.811329</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>0.81132899999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="3">
-        <v>0.426542</v>
+        <v>0.42654199999999998</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3">
-        <v>0.426542</v>
+        <v>0.42654199999999998</v>
       </c>
       <c r="G69" s="3">
-        <v>0.583651</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0.58365100000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B70" s="3">
-        <v>0.590061</v>
+        <v>0.59006099999999995</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3">
-        <v>0.590061</v>
+        <v>0.59006099999999995</v>
       </c>
       <c r="G70" s="3">
-        <v>0.569125</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>0.56912499999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B71" s="3">
-        <v>0.373368</v>
+        <v>0.37336799999999998</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3">
-        <v>0.373368</v>
+        <v>0.37336799999999998</v>
       </c>
       <c r="G71" s="3">
-        <v>0.707062</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0.70706199999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B72" s="3">
-        <v>0.624202</v>
+        <v>0.62420200000000003</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3">
-        <v>0.624202</v>
+        <v>0.62420200000000003</v>
       </c>
       <c r="G72" s="3">
         <v>0.661968</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="3">
-        <v>0.452118</v>
+        <v>0.45211800000000002</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3">
-        <v>0.452118</v>
+        <v>0.45211800000000002</v>
       </c>
       <c r="G73" s="3">
-        <v>0.993636</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>0.99363599999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B74" s="3">
-        <v>0.559308</v>
+        <v>0.55930800000000003</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="3">
-        <v>0.559308</v>
+        <v>0.55930800000000003</v>
       </c>
       <c r="G74" s="3">
         <v>0.509216</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B75" s="3">
-        <v>0.580262</v>
+        <v>0.58026200000000006</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3">
-        <v>0.580262</v>
+        <v>0.58026200000000006</v>
       </c>
       <c r="G75" s="3">
-        <v>0.84577</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>0.84577000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B76" s="3">
         <v>0.583928</v>
@@ -1605,213 +1678,213 @@
         <v>0.612954</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B77" s="3">
-        <v>0.509481</v>
+        <v>0.50948099999999996</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="3">
-        <v>0.509481</v>
+        <v>0.50948099999999996</v>
       </c>
       <c r="G77" s="3">
-        <v>0.656958</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0.65695800000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B78" s="3">
-        <v>0.519143</v>
+        <v>0.51914300000000002</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="3">
-        <v>0.519143</v>
+        <v>0.51914300000000002</v>
       </c>
       <c r="G78" s="3">
-        <v>0.828971</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>0.82897100000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="3">
-        <v>0.583021</v>
+        <v>0.58302100000000001</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="3">
-        <v>0.583021</v>
+        <v>0.58302100000000001</v>
       </c>
       <c r="G79" s="3">
-        <v>0.574669</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>0.57466899999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B80" s="3">
-        <v>0.692359</v>
+        <v>0.69235899999999995</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="3">
-        <v>0.692359</v>
+        <v>0.69235899999999995</v>
       </c>
       <c r="G80" s="3">
-        <v>0.660019</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0.66001900000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B81" s="3">
-        <v>0.619248</v>
+        <v>0.61924800000000002</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="3">
-        <v>0.619248</v>
+        <v>0.61924800000000002</v>
       </c>
       <c r="G81" s="3">
-        <v>0.957993</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0.95799299999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B82" s="3">
-        <v>0.68272</v>
+        <v>0.68271999999999999</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="3">
-        <v>0.68272</v>
+        <v>0.68271999999999999</v>
       </c>
       <c r="G82" s="3">
-        <v>0.57497</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>0.57496999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B83" s="3">
-        <v>0.564023</v>
+        <v>0.56402300000000005</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="3">
-        <v>0.564023</v>
+        <v>0.56402300000000005</v>
       </c>
       <c r="G83" s="3">
         <v>0.639069</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="3">
-        <v>0.795532</v>
+        <v>0.79553200000000002</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="3">
-        <v>0.795532</v>
+        <v>0.79553200000000002</v>
       </c>
       <c r="G84" s="3">
-        <v>0.401035</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>0.40103499999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B85" s="3">
-        <v>0.480122</v>
+        <v>0.48012199999999999</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="3">
-        <v>0.480122</v>
+        <v>0.48012199999999999</v>
       </c>
       <c r="G85" s="3">
-        <v>0.562727</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0.56272699999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B86" s="3">
-        <v>0.664529</v>
+        <v>0.66452900000000004</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="3">
-        <v>0.664529</v>
+        <v>0.66452900000000004</v>
       </c>
       <c r="G86" s="3">
-        <v>0.516702</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0.51670199999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B87" s="3">
-        <v>0.422606</v>
+        <v>0.42260599999999998</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="3">
-        <v>0.422606</v>
+        <v>0.42260599999999998</v>
       </c>
       <c r="G87" s="3">
         <v>0.618919</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B88" s="3">
-        <v>0.574928</v>
+        <v>0.57492799999999999</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="3">
-        <v>0.574928</v>
+        <v>0.57492799999999999</v>
       </c>
       <c r="G88" s="3">
-        <v>0.579138</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>0.57913800000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B89" s="3">
         <v>0.881162</v>
@@ -1823,151 +1896,151 @@
         <v>0.881162</v>
       </c>
       <c r="G89" s="3">
-        <v>0.713242</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>0.71324200000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B90" s="3">
-        <v>0.644835</v>
+        <v>0.64483500000000005</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="3">
-        <v>0.644835</v>
+        <v>0.64483500000000005</v>
       </c>
       <c r="G90" s="3">
-        <v>0.533292</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>0.53329199999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B91" s="3">
-        <v>0.683514</v>
+        <v>0.68351399999999995</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="3">
-        <v>0.683514</v>
+        <v>0.68351399999999995</v>
       </c>
       <c r="G91" s="3">
-        <v>0.686791</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>0.68679100000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B92" s="3">
-        <v>0.636671</v>
+        <v>0.63667099999999999</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="3">
-        <v>0.636671</v>
+        <v>0.63667099999999999</v>
       </c>
       <c r="G92" s="3">
-        <v>0.739003</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>0.73900299999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B93" s="3">
-        <v>0.669495</v>
+        <v>0.66949499999999995</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="3">
-        <v>0.669495</v>
+        <v>0.66949499999999995</v>
       </c>
       <c r="G93" s="3">
-        <v>0.648183</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>0.64818299999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B94" s="3">
-        <v>0.69421</v>
+        <v>0.69420999999999999</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="3">
-        <v>0.69421</v>
+        <v>0.69420999999999999</v>
       </c>
       <c r="G94" s="3">
         <v>0.414296</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>0.502124</v>
+        <v>0.50212400000000001</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="3">
-        <v>0.502124</v>
+        <v>0.50212400000000001</v>
       </c>
       <c r="G95" s="3">
-        <v>0.625463</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>0.62546299999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B96" s="3">
-        <v>0.581073</v>
+        <v>0.58107299999999995</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="3">
-        <v>0.581073</v>
+        <v>0.58107299999999995</v>
       </c>
       <c r="G96" s="3">
-        <v>0.738053</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0.73805299999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B97" s="3">
-        <v>0.497011</v>
+        <v>0.49701099999999998</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="3">
-        <v>0.497011</v>
+        <v>0.49701099999999998</v>
       </c>
       <c r="G97" s="3">
         <v>0.710507</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B98" s="3">
-        <v>0.606083</v>
+        <v>0.60608300000000004</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -1975,12 +2048,12 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B99" s="3">
-        <v>0.474372</v>
+        <v>0.47437200000000002</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -1988,12 +2061,12 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B100" s="3">
-        <v>0.862637</v>
+        <v>0.86263699999999999</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2001,12 +2074,12 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>0.562211</v>
+        <v>0.56221100000000002</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2014,12 +2087,12 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B102" s="3">
-        <v>0.525887</v>
+        <v>0.52588699999999999</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2027,12 +2100,12 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B103" s="3">
-        <v>0.557827</v>
+        <v>0.55782699999999996</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -2040,12 +2113,12 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B104" s="3">
-        <v>0.560339</v>
+        <v>0.56033900000000003</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2053,12 +2126,12 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B105" s="3">
-        <v>0.594876</v>
+        <v>0.59487599999999996</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -2066,12 +2139,12 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B106" s="3">
-        <v>0.459932</v>
+        <v>0.45993200000000001</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2079,12 +2152,12 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B107" s="3">
-        <v>0.50698</v>
+        <v>0.50697999999999999</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -2092,12 +2165,12 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B108" s="3">
-        <v>1.111047</v>
+        <v>1.1110469999999999</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2105,12 +2178,12 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B109" s="3">
-        <v>0.599791</v>
+        <v>0.59979099999999996</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -2118,12 +2191,12 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B110" s="3">
-        <v>0.789899</v>
+        <v>0.78989900000000002</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2131,12 +2204,12 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B111" s="3">
-        <v>0.994681</v>
+        <v>0.99468100000000004</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -2144,12 +2217,12 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B112" s="3">
-        <v>0.871966</v>
+        <v>0.87196600000000002</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2157,12 +2230,12 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B113" s="3">
-        <v>0.796635</v>
+        <v>0.79663499999999998</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -2170,9 +2243,9 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B114" s="3">
         <v>0.895181</v>
@@ -2183,12 +2256,12 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B115" s="3">
-        <v>0.575374</v>
+        <v>0.57537400000000005</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2196,12 +2269,12 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B116" s="3">
-        <v>0.933213</v>
+        <v>0.93321299999999996</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2209,12 +2282,12 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B117" s="3">
-        <v>0.851311</v>
+        <v>0.85131100000000004</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -2222,12 +2295,12 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B118" s="3">
-        <v>0.723844</v>
+        <v>0.72384400000000004</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -2235,12 +2308,12 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B119" s="3">
-        <v>0.84629</v>
+        <v>0.84628999999999999</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -2248,12 +2321,12 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B120" s="3">
-        <v>0.610672</v>
+        <v>0.61067199999999999</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -2261,12 +2334,12 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B121" s="3">
-        <v>0.482328</v>
+        <v>0.48232799999999998</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -2274,12 +2347,12 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B122" s="3">
-        <v>0.712126</v>
+        <v>0.71212600000000004</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -2287,12 +2360,12 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B123" s="3">
-        <v>0.661349</v>
+        <v>0.66134899999999996</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2300,12 +2373,12 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B124" s="3">
-        <v>0.803673</v>
+        <v>0.80367299999999997</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -2313,12 +2386,12 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B125" s="3">
-        <v>0.663687</v>
+        <v>0.66368700000000003</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -2326,12 +2399,12 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B126" s="3">
-        <v>0.69607</v>
+        <v>0.69606999999999997</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -2339,12 +2412,12 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B127" s="3">
-        <v>1.41646</v>
+        <v>1.4164600000000001</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -2352,12 +2425,12 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B128" s="3">
-        <v>0.612419</v>
+        <v>0.61241900000000005</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -2365,12 +2438,12 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B129" s="3">
-        <v>1.505996</v>
+        <v>1.5059959999999999</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -2378,12 +2451,12 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B130" s="3">
-        <v>0.524275</v>
+        <v>0.52427500000000005</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -2391,12 +2464,12 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B131" s="3">
-        <v>0.711859</v>
+        <v>0.71185900000000002</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -2404,12 +2477,12 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B132" s="3">
-        <v>0.633809</v>
+        <v>0.63380899999999996</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -2417,12 +2490,12 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B133" s="3">
-        <v>0.776862</v>
+        <v>0.77686200000000005</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -2430,9 +2503,9 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B134" s="3">
         <v>0.702878</v>
@@ -2443,12 +2516,12 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B135" s="3">
-        <v>0.728108</v>
+        <v>0.72810799999999998</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -2456,12 +2529,12 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B136" s="3">
-        <v>0.544615</v>
+        <v>0.54461499999999996</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -2469,12 +2542,12 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B137" s="3">
-        <v>0.652479</v>
+        <v>0.65247900000000003</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -2482,12 +2555,12 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B138" s="3">
-        <v>0.476347</v>
+        <v>0.47634700000000002</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -2495,12 +2568,12 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B139" s="3">
-        <v>0.40582</v>
+        <v>0.40582000000000001</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -2508,12 +2581,12 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B140" s="3">
-        <v>0.563241</v>
+        <v>0.56324099999999999</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -2521,12 +2594,12 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B141" s="3">
-        <v>0.614987</v>
+        <v>0.61498699999999995</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -2534,9 +2607,9 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B142" s="3">
         <v>0.657555</v>
@@ -2547,12 +2620,12 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B143" s="3">
-        <v>0.65007</v>
+        <v>0.65007000000000004</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -2560,12 +2633,12 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B144" s="3">
-        <v>0.899157</v>
+        <v>0.89915699999999998</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -2573,12 +2646,12 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B145" s="3">
-        <v>0.62503</v>
+        <v>0.62502999999999997</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -2586,12 +2659,12 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B146" s="3">
-        <v>0.526875</v>
+        <v>0.52687499999999998</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -2599,12 +2672,12 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B147" s="3">
-        <v>0.523295</v>
+        <v>0.52329499999999995</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -2612,12 +2685,12 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B148" s="3">
-        <v>0.433264</v>
+        <v>0.43326399999999998</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -2625,12 +2698,12 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B149" s="3">
-        <v>0.795802</v>
+        <v>0.79580200000000001</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -2638,9 +2711,9 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B150" s="3">
         <v>1.113143</v>
@@ -2651,9 +2724,9 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B151" s="3">
         <v>0.446108</v>
@@ -2664,12 +2737,12 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B152" s="3">
-        <v>0.54527</v>
+        <v>0.54527000000000003</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -2677,9 +2750,9 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B153" s="3">
         <v>0.57765</v>
@@ -2690,12 +2763,12 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B154" s="3">
-        <v>0.90875</v>
+        <v>0.90874999999999995</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -2703,9 +2776,9 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B155" s="3">
         <v>0.650644</v>
@@ -2716,12 +2789,12 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B156" s="3">
-        <v>0.536669</v>
+        <v>0.53666899999999995</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -2729,12 +2802,12 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B157" s="3">
-        <v>0.723981</v>
+        <v>0.72398099999999999</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -2742,12 +2815,12 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B158" s="3">
-        <v>0.723408</v>
+        <v>0.72340800000000005</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -2755,12 +2828,12 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B159" s="3">
-        <v>0.653309</v>
+        <v>0.65330900000000003</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -2768,12 +2841,12 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B160" s="3">
-        <v>0.728452</v>
+        <v>0.72845199999999999</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -2781,12 +2854,12 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B161" s="3">
-        <v>0.547452</v>
+        <v>0.54745200000000005</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -2794,12 +2867,12 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B162" s="3">
-        <v>0.811986</v>
+        <v>0.81198599999999999</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -2807,12 +2880,12 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B163" s="3">
-        <v>0.654295</v>
+        <v>0.65429499999999996</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -2820,12 +2893,12 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B164" s="3">
-        <v>0.811329</v>
+        <v>0.81132899999999997</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -2833,12 +2906,12 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B165" s="3">
-        <v>0.583651</v>
+        <v>0.58365100000000003</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -2846,12 +2919,12 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B166" s="3">
-        <v>0.569125</v>
+        <v>0.56912499999999999</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -2859,12 +2932,12 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B167" s="3">
-        <v>0.707062</v>
+        <v>0.70706199999999997</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -2872,9 +2945,9 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B168" s="3">
         <v>0.661968</v>
@@ -2885,12 +2958,12 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B169" s="3">
-        <v>0.993636</v>
+        <v>0.99363599999999996</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -2898,9 +2971,9 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B170" s="3">
         <v>0.509216</v>
@@ -2911,12 +2984,12 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B171" s="3">
-        <v>0.84577</v>
+        <v>0.84577000000000002</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -2924,9 +2997,9 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B172" s="3">
         <v>0.612954</v>
@@ -2937,12 +3010,12 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B173" s="3">
-        <v>0.656958</v>
+        <v>0.65695800000000004</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -2950,12 +3023,12 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B174" s="3">
-        <v>0.828971</v>
+        <v>0.82897100000000001</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -2963,12 +3036,12 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B175" s="3">
-        <v>0.574669</v>
+        <v>0.57466899999999999</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -2976,12 +3049,12 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B176" s="3">
-        <v>0.660019</v>
+        <v>0.66001900000000002</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -2989,12 +3062,12 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B177" s="3">
-        <v>0.957993</v>
+        <v>0.95799299999999998</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -3002,12 +3075,12 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B178" s="3">
-        <v>0.57497</v>
+        <v>0.57496999999999998</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -3015,9 +3088,9 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B179" s="3">
         <v>0.639069</v>
@@ -3028,12 +3101,12 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B180" s="3">
-        <v>0.401035</v>
+        <v>0.40103499999999997</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -3041,12 +3114,12 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B181" s="3">
-        <v>0.562727</v>
+        <v>0.56272699999999998</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -3054,12 +3127,12 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B182" s="3">
-        <v>0.516702</v>
+        <v>0.51670199999999999</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -3067,9 +3140,9 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B183" s="3">
         <v>0.618919</v>
@@ -3080,12 +3153,12 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B184" s="3">
-        <v>0.579138</v>
+        <v>0.57913800000000004</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -3093,12 +3166,12 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B185" s="3">
-        <v>0.713242</v>
+        <v>0.71324200000000004</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -3106,12 +3179,12 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B186" s="3">
-        <v>0.533292</v>
+        <v>0.53329199999999999</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -3119,12 +3192,12 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B187" s="3">
-        <v>0.686791</v>
+        <v>0.68679100000000004</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -3132,12 +3205,12 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B188" s="3">
-        <v>0.739003</v>
+        <v>0.73900299999999997</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -3145,12 +3218,12 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B189" s="3">
-        <v>0.648183</v>
+        <v>0.64818299999999995</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -3158,9 +3231,9 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B190" s="3">
         <v>0.414296</v>
@@ -3171,12 +3244,12 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B191" s="3">
-        <v>0.625463</v>
+        <v>0.62546299999999999</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -3184,12 +3257,12 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B192" s="3">
-        <v>0.738053</v>
+        <v>0.73805299999999996</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -3197,9 +3270,9 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B193" s="3">
         <v>0.710507</v>
@@ -3214,6 +3287,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>